--- a/data/cardform.xlsx
+++ b/data/cardform.xlsx
@@ -45,28 +45,13 @@
     <t>國內現金回饋 dcb</t>
   </si>
   <si>
-    <t>國外消費現金回饋備註 fcb_n</t>
-  </si>
-  <si>
-    <t>國內消費現金回饋備註 dcb_n</t>
-  </si>
-  <si>
     <t>國外哩程累積 fma</t>
   </si>
   <si>
-    <t>國內哩程累積 dma</t>
-  </si>
-  <si>
     <t>國外哩程累積備註 fma_n</t>
   </si>
   <si>
     <t>國內哩程累積備註 dma_n</t>
-  </si>
-  <si>
-    <t>加油現金回饋 _x0008_refuel_cb</t>
-  </si>
-  <si>
-    <t>加油優惠 _x0008_refuel_dis</t>
   </si>
   <si>
     <t>加油現金回饋備註 refuel_cb_n</t>
@@ -10957,6 +10942,26 @@
       </rPr>
       <t>弘安藥妝聯名卡</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國內消費現金回饋備註 dcb_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國外消費現金回饋備註 fcb_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國內哩程累積 dma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油現金回饋 _x0008_refuel_cb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油優惠 _x0008_refuel_dis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11352,7 +11357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11362,8 +11367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11375,12 +11380,12 @@
     <col min="9" max="9" width="22.375" customWidth="1"/>
     <col min="10" max="10" width="25.25" customWidth="1"/>
     <col min="11" max="11" width="18.25" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="7.375" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="26.125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="26.25" customWidth="1"/>
+    <col min="16" max="16" width="39.875" customWidth="1"/>
+    <col min="17" max="17" width="32.125" customWidth="1"/>
     <col min="18" max="18" width="26.375" customWidth="1"/>
     <col min="19" max="19" width="20.875" customWidth="1"/>
     <col min="20" max="20" width="16.625" customWidth="1"/>
@@ -11424,96 +11429,96 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>575</v>
+      </c>
+      <c r="I1" t="s">
+        <v>574</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>577</v>
+      </c>
+      <c r="O1" t="s">
+        <v>578</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AG1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>576</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>6.88E-2</v>
@@ -11522,51 +11527,51 @@
         <v>6.88E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W2">
         <v>6.88E-2</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE2">
         <v>500</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3">
         <v>0.03</v>
@@ -11575,27 +11580,27 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AD3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3">
         <v>0.02</v>
@@ -11604,51 +11609,51 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <v>0.02</v>
       </c>
       <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
       <c r="AD4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE4">
         <v>1500</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3">
         <v>0.01</v>
@@ -11657,30 +11662,30 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE5">
         <v>300</v>
       </c>
       <c r="AG5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -11689,27 +11694,27 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AD6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE6">
         <v>1116</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3">
         <v>0.02</v>
@@ -11718,39 +11723,39 @@
         <v>0.03</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AD7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE7">
         <v>300</v>
       </c>
       <c r="AG7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D8" s="4">
         <v>3000</v>
@@ -11762,21 +11767,21 @@
         <v>0.03</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>1.2E-2</v>
@@ -11785,24 +11790,24 @@
         <v>0.03</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AD9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D10" s="4">
         <v>1800</v>
@@ -11814,18 +11819,18 @@
         <v>0.03</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI10" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D11" s="4">
         <v>1800</v>
@@ -11837,21 +11842,21 @@
         <v>0.03</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI11" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3">
         <v>0.01</v>
@@ -11860,21 +11865,21 @@
         <v>0.03</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="3">
         <v>0.01</v>
@@ -11883,21 +11888,21 @@
         <v>0.03</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI13" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3">
         <v>0.01</v>
@@ -11906,22 +11911,22 @@
         <v>0.03</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q14" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="V14">
         <v>500</v>
@@ -11930,27 +11935,27 @@
         <v>0.03</v>
       </c>
       <c r="X14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y14" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AD14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE14">
         <v>300</v>
       </c>
       <c r="AI14" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3">
         <v>0.01</v>
@@ -11959,39 +11964,39 @@
         <v>0.03</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W15">
         <v>0.05</v>
       </c>
       <c r="X15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z15" t="s">
         <v>236</v>
       </c>
-      <c r="Y15" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>241</v>
-      </c>
       <c r="AA15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AC15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D16" s="4">
         <v>3000</v>
@@ -12003,18 +12008,18 @@
         <v>0.03</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D17" s="4">
         <v>4500</v>
@@ -12026,42 +12031,42 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1.2E-2</v>
       </c>
       <c r="O17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AI17" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D18" s="4">
         <v>1800</v>
@@ -12073,27 +12078,27 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AD18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE18">
         <v>500</v>
       </c>
       <c r="AG18" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AI18" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D19" s="4">
         <v>4500</v>
@@ -12105,18 +12110,18 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI19" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -12128,21 +12133,21 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2">
         <v>1.2E-2</v>
@@ -12151,42 +12156,42 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W21">
         <v>0.03</v>
       </c>
       <c r="X21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AD21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE21">
         <v>1300</v>
       </c>
       <c r="AG21" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3">
         <v>0.01</v>
@@ -12195,18 +12200,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D23" s="4">
         <v>2400</v>
@@ -12218,18 +12223,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI23" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D24" s="4">
         <v>2400</v>
@@ -12241,21 +12246,21 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2">
         <v>5.0000000000000001E-3</v>
@@ -12264,18 +12269,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D26" s="4">
         <v>300</v>
@@ -12287,18 +12292,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI26" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D27" s="4">
         <v>1500</v>
@@ -12310,18 +12315,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D28" s="4">
         <v>4500</v>
@@ -12333,21 +12338,21 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2">
         <v>1.23E-2</v>
@@ -12356,18 +12361,18 @@
         <v>2.23E-2</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D30" s="4">
         <v>1800</v>
@@ -12379,18 +12384,18 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D31" s="4">
         <v>1800</v>
@@ -12402,18 +12407,18 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI31" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D32" s="4">
         <v>1800</v>
@@ -12425,18 +12430,18 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI32" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D33" s="4">
         <v>20000</v>
@@ -12448,18 +12453,18 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D34" s="4">
         <v>3000</v>
@@ -12471,18 +12476,18 @@
         <v>0.02</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI34" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="35" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D35" s="4">
         <v>3000</v>
@@ -12494,10 +12499,10 @@
         <v>0.02</v>
       </c>
       <c r="H35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V35">
         <v>100</v>
@@ -12512,12 +12517,12 @@
         <v>0</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="36" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -12529,18 +12534,18 @@
         <v>0.02</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="37" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D37" s="4">
         <v>3000</v>
@@ -12552,18 +12557,18 @@
         <v>0.02</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D38" s="4">
         <v>5000</v>
@@ -12575,18 +12580,18 @@
         <v>0.02</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI38" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D39" s="4">
         <v>3000</v>
@@ -12598,18 +12603,18 @@
         <v>0.02</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D40" s="4">
         <v>1800</v>
@@ -12621,24 +12626,24 @@
         <v>0.02</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AD40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE40">
         <v>500</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D41" s="4">
         <v>1200</v>
@@ -12650,10 +12655,10 @@
         <v>0.02</v>
       </c>
       <c r="H41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="V41">
         <v>500</v>
@@ -12668,12 +12673,12 @@
         <v>0</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D42" s="4">
         <v>1800</v>
@@ -12685,18 +12690,18 @@
         <v>0.02</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI42" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D43" s="4">
         <v>2400</v>
@@ -12708,21 +12713,21 @@
         <v>0.02</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI43" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="44" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F44" s="2">
         <v>1.2999999999999999E-2</v>
@@ -12731,24 +12736,24 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI44" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -12760,27 +12765,27 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE45">
         <v>600</v>
       </c>
       <c r="AG45" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="46" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D46" s="4">
         <v>2400</v>
@@ -12792,18 +12797,18 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D47" s="4">
         <v>2000</v>
@@ -12815,21 +12820,21 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H47" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -12838,13 +12843,13 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I48" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z48" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA48">
         <v>3000</v>
@@ -12853,21 +12858,21 @@
         <v>0</v>
       </c>
       <c r="AD48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE48">
         <v>300</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="49" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F49" s="3">
         <v>0.01</v>
@@ -12876,24 +12881,24 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE49">
         <v>500</v>
       </c>
       <c r="AI49" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D50" s="4">
         <v>20000</v>
@@ -12905,21 +12910,21 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="H50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2">
         <v>8.0000000000000002E-3</v>
@@ -12928,24 +12933,24 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I51" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F52" s="3">
         <v>0.06</v>
@@ -12954,18 +12959,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H52" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -12977,22 +12982,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N53">
         <v>0.05</v>
       </c>
       <c r="O53" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="V53">
         <v>300</v>
@@ -13001,18 +13006,18 @@
         <v>0.05</v>
       </c>
       <c r="X53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Y53" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D54" s="4">
         <v>2000</v>
@@ -13024,27 +13029,27 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H54" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AD54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE54">
         <v>500</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2">
         <v>1.4999999999999999E-2</v>
@@ -13053,34 +13058,34 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N55">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O55" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q55" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S55" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="U55" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="V55">
         <v>500</v>
@@ -13095,15 +13100,15 @@
         <v>0</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D56" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F56" s="2">
         <v>1.4999999999999999E-2</v>
@@ -13112,27 +13117,27 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Z56" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA56" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AC56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D57" s="4">
         <v>3000</v>
@@ -13144,39 +13149,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H57" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N57">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O57" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P57" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q57" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AD57" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE57">
         <v>799</v>
       </c>
       <c r="AG57" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D58" s="4">
         <v>3000</v>
@@ -13188,18 +13193,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H58" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I58" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="59" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -13211,39 +13216,39 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q59" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Z59" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA59" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AC59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D60" s="4">
         <v>10000</v>
@@ -13255,18 +13260,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="61" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D61" s="4">
         <v>30000</v>
@@ -13278,18 +13283,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H61" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D62" s="4">
         <v>25000</v>
@@ -13301,18 +13306,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H62" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I62" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D63" s="4">
         <v>3000</v>
@@ -13324,24 +13329,24 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AD63" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE63">
         <v>500</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="64" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D64" s="4">
         <v>3000</v>
@@ -13353,21 +13358,21 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F65" s="2">
         <v>6.0000000000000001E-3</v>
@@ -13376,30 +13381,30 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Z65" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AA65">
         <v>1000</v>
       </c>
       <c r="AC65" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AI65" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D66" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2">
         <v>6.0000000000000001E-3</v>
@@ -13408,18 +13413,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI66" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D67" s="4">
         <v>2000</v>
@@ -13431,18 +13436,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H67" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I67" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI67" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D68" s="4">
         <v>3000</v>
@@ -13454,18 +13459,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI68" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -13477,34 +13482,34 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Q69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="R69" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S69" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U69" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="V69">
         <v>450</v>
@@ -13519,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA69">
         <v>2000</v>
@@ -13528,12 +13533,12 @@
         <v>0</v>
       </c>
       <c r="AI69" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D70" s="4">
         <v>300</v>
@@ -13545,18 +13550,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H70" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D71" s="4">
         <v>1800</v>
@@ -13568,27 +13573,27 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Z71" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AA71">
         <v>500</v>
       </c>
       <c r="AC71" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AI71" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D72" s="4">
         <v>2400</v>
@@ -13600,22 +13605,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R72" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S72" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T72" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U72" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="V72">
         <v>2000</v>
@@ -13624,18 +13629,18 @@
         <v>0.06</v>
       </c>
       <c r="X72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Y72" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AI72" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D73" s="4">
         <v>1800</v>
@@ -13647,30 +13652,30 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H73" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R73" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S73" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D74" s="4">
         <v>2400</v>
@@ -13682,18 +13687,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H74" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I74" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AI74" s="5" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="75" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D75" s="4">
         <v>2400</v>
@@ -13705,18 +13710,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AI75" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D76" s="4">
         <v>300</v>
@@ -13728,18 +13733,18 @@
         <v>1.2E-2</v>
       </c>
       <c r="H76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D77" s="4">
         <v>1800</v>
@@ -13751,21 +13756,21 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="H77" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I77" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D78" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F78" s="3">
         <v>0.01</v>
@@ -13774,51 +13779,51 @@
         <v>0.01</v>
       </c>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L78" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M78" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="R78" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S78" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T78" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U78" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AD78" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE78">
         <v>500</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="79" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D79" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F79" s="3">
         <v>0.01</v>
@@ -13827,10 +13832,10 @@
         <v>0.01</v>
       </c>
       <c r="H79" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I79" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="V79">
         <v>600</v>
@@ -13845,12 +13850,12 @@
         <v>0</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -13862,24 +13867,24 @@
         <v>0.01</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AD80" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE80">
         <v>200</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D81" s="4">
         <v>1200</v>
@@ -13891,18 +13896,18 @@
         <v>0.01</v>
       </c>
       <c r="H81" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI81" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D82" s="4">
         <v>1200</v>
@@ -13914,18 +13919,18 @@
         <v>0.01</v>
       </c>
       <c r="H82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I82" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI82" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D83" s="4">
         <v>1800</v>
@@ -13937,18 +13942,18 @@
         <v>0.01</v>
       </c>
       <c r="H83" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I83" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI83" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="84" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D84" s="4">
         <v>1800</v>
@@ -13960,18 +13965,18 @@
         <v>0.01</v>
       </c>
       <c r="H84" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I84" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI84" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D85" s="4">
         <v>1800</v>
@@ -13983,42 +13988,42 @@
         <v>0.01</v>
       </c>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I85" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N85">
         <v>0.01</v>
       </c>
       <c r="O85" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P85" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q85" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R85" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S85" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T85" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="U85" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AI85" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D86" s="4">
         <v>2000</v>
@@ -14030,18 +14035,18 @@
         <v>0.01</v>
       </c>
       <c r="H86" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI86" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D87" s="4">
         <v>3000</v>
@@ -14053,18 +14058,18 @@
         <v>0.01</v>
       </c>
       <c r="H87" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI87" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D88" s="4">
         <v>3000</v>
@@ -14076,18 +14081,18 @@
         <v>0.01</v>
       </c>
       <c r="H88" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AI88" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D89" s="4">
         <v>900</v>
@@ -14099,21 +14104,21 @@
         <v>0.01</v>
       </c>
       <c r="H89" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI89" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F90" s="2">
         <v>3.0000000000000001E-3</v>
@@ -14122,24 +14127,24 @@
         <v>0.01</v>
       </c>
       <c r="H90" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I90" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AD90" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE90">
         <v>500</v>
       </c>
       <c r="AI90" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="91" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D91" s="4">
         <v>1800</v>
@@ -14151,21 +14156,21 @@
         <v>0.01</v>
       </c>
       <c r="H91" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I91" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI91" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D92" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -14174,30 +14179,30 @@
         <v>0.01</v>
       </c>
       <c r="H92" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I92" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K92" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L92" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M92" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AI92" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D93" s="4">
         <v>10000</v>
@@ -14209,18 +14214,18 @@
         <v>0.01</v>
       </c>
       <c r="H93" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I93" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI93" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D94" s="4">
         <v>0</v>
@@ -14232,18 +14237,18 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H94" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I94" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI94" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D95" s="4">
         <v>0</v>
@@ -14255,21 +14260,21 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="H95" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I95" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F96" s="2">
         <v>7.0000000000000001E-3</v>
@@ -14278,18 +14283,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H96" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI96" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D97" s="4">
         <v>300</v>
@@ -14301,18 +14306,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H97" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I97" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI97" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D98" s="4">
         <v>1500</v>
@@ -14324,10 +14329,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H98" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="V98">
         <v>300</v>
@@ -14342,18 +14347,18 @@
         <v>0</v>
       </c>
       <c r="AD98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI98" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D99" s="4">
         <v>1500</v>
@@ -14365,18 +14370,18 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H99" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I99" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI99" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D100" s="4">
         <v>3000</v>
@@ -14388,13 +14393,13 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="H100" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I100" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z100" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA100">
         <v>3000</v>
@@ -14403,12 +14408,12 @@
         <v>0</v>
       </c>
       <c r="AI100" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="101" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D101" s="4">
         <v>3000</v>
@@ -14420,13 +14425,13 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="H101" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I101" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Z101" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA101">
         <v>3000</v>
@@ -14435,15 +14440,15 @@
         <v>0</v>
       </c>
       <c r="AI101" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D102" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F102" s="3">
         <v>0.01</v>
@@ -14452,21 +14457,21 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H102" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I102" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI102" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D103" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F103" s="2">
         <v>6.0000000000000001E-3</v>
@@ -14475,21 +14480,21 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H103" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I103" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AI103" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F104" s="2">
         <v>6.0000000000000001E-3</v>
@@ -14498,21 +14503,21 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H104" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I104" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AI104" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F105" s="3">
         <v>0.02</v>
@@ -14521,18 +14526,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H105" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I105" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AI105" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D106" s="4">
         <v>1200</v>
@@ -14544,18 +14549,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H106" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I106" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AI106" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D107" s="4">
         <v>1500</v>
@@ -14567,18 +14572,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H107" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I107" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AI107" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D108" s="4">
         <v>3600</v>
@@ -14590,33 +14595,33 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H108" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I108" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J108" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K108" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L108" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M108" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AI108" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D109" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F109" s="2">
         <v>5.0000000000000001E-3</v>
@@ -14625,21 +14630,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H109" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI109" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D110" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F110" s="2">
         <v>5.0000000000000001E-3</v>
@@ -14648,21 +14653,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H110" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI110" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="111" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D111" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F111" s="2">
         <v>5.0000000000000001E-3</v>
@@ -14671,30 +14676,30 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H111" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I111" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N111">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O111" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P111" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q111" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AI111" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="112" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D112" s="4">
         <v>1500</v>
@@ -14706,18 +14711,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H112" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I112" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI112" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D113" s="4">
         <v>1500</v>
@@ -14729,18 +14734,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H113" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I113" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI113" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="114" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D114" s="4">
         <v>1500</v>
@@ -14752,18 +14757,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H114" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I114" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI114" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D115" s="4">
         <v>2400</v>
@@ -14775,18 +14780,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H115" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I115" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AI115" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D116" s="4">
         <v>3000</v>
@@ -14798,18 +14803,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H116" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I116" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI116" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="117" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D117" s="4">
         <v>1500</v>
@@ -14821,30 +14826,30 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H117" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I117" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N117">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O117" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P117" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q117" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AI117" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="118" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D118" s="4">
         <v>5000</v>
@@ -14856,21 +14861,21 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H118" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI118" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D119" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -14879,36 +14884,36 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H119" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="V119" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="W119">
         <v>0.1</v>
       </c>
       <c r="X119" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Y119" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AD119" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE119">
         <v>100</v>
       </c>
       <c r="AI119" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D120" s="4">
         <v>1200</v>
@@ -14920,21 +14925,21 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H120" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I120" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI120" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D121" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F121" s="2">
         <v>6.7000000000000002E-3</v>
@@ -14943,21 +14948,21 @@
         <v>3.3E-3</v>
       </c>
       <c r="H121" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I121" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AI121" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="122" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F122" s="2">
         <v>6.7000000000000002E-3</v>
@@ -14966,21 +14971,21 @@
         <v>3.3E-3</v>
       </c>
       <c r="H122" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I122" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AI122" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F123" s="2">
         <v>1.2E-2</v>
@@ -14989,10 +14994,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H123" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I123" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V123">
         <v>300</v>
@@ -15007,18 +15012,18 @@
         <v>0</v>
       </c>
       <c r="AD123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE123">
         <v>300</v>
       </c>
       <c r="AI123" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="124" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D124" s="4">
         <v>2000</v>
@@ -15030,10 +15035,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H124" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I124" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="V124">
         <v>300</v>
@@ -15048,12 +15053,12 @@
         <v>0</v>
       </c>
       <c r="AI124" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D125" s="4">
         <v>300</v>
@@ -15065,30 +15070,30 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H125" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I125" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N125">
         <v>1.2E-2</v>
       </c>
       <c r="O125" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P125" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q125" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI125" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D126" s="4">
         <v>300</v>
@@ -15100,18 +15105,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H126" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I126" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AI126" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D127" s="4">
         <v>1500</v>
@@ -15123,30 +15128,30 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H127" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I127" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N127">
         <v>1.2E-2</v>
       </c>
       <c r="O127" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P127" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q127" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI127" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D128" s="4">
         <v>1200</v>
@@ -15158,21 +15163,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H128" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I128" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AI128" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F129" s="2">
         <v>8.0000000000000002E-3</v>
@@ -15181,21 +15186,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H129" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I129" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AI129" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2">
         <v>3.0000000000000001E-3</v>
@@ -15204,10 +15209,10 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I130" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="V130">
         <v>300</v>
@@ -15222,12 +15227,12 @@
         <v>0</v>
       </c>
       <c r="AI130" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D131" s="4">
         <v>1200</v>
@@ -15239,18 +15244,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H131" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I131" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI131" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D132" s="4">
         <v>1200</v>
@@ -15262,18 +15267,18 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H132" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I132" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI132" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D133" s="4">
         <v>1800</v>
@@ -15285,22 +15290,22 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H133" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R133" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S133" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T133" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="U133" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="V133">
         <v>300</v>
@@ -15315,15 +15320,15 @@
         <v>0</v>
       </c>
       <c r="AI133" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F134" s="2">
         <v>2.5000000000000001E-3</v>
@@ -15332,18 +15337,18 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H134" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I134" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI134" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="135" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D135" s="4">
         <v>1500</v>
@@ -15355,18 +15360,18 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="H135" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI135" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D136" s="4">
         <v>0</v>
@@ -15378,33 +15383,33 @@
         <v>2E-3</v>
       </c>
       <c r="H136" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N136">
         <v>0.02</v>
       </c>
       <c r="O136" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P136" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q136" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI136" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F137" s="2">
         <v>2E-3</v>
@@ -15413,30 +15418,30 @@
         <v>2E-3</v>
       </c>
       <c r="H137" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I137" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N137">
         <v>0.05</v>
       </c>
       <c r="O137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P137" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q137" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AI137" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D138" s="4">
         <v>300</v>
@@ -15448,18 +15453,18 @@
         <v>2E-3</v>
       </c>
       <c r="H138" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I138" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI138" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="139" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D139" s="4">
         <v>600</v>
@@ -15471,18 +15476,18 @@
         <v>2E-3</v>
       </c>
       <c r="H139" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I139" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI139" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D140" s="4">
         <v>1200</v>
@@ -15494,30 +15499,30 @@
         <v>2E-3</v>
       </c>
       <c r="H140" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I140" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N140">
         <v>0.05</v>
       </c>
       <c r="O140" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q140" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AI140" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D141" s="4">
         <v>1200</v>
@@ -15529,30 +15534,30 @@
         <v>2E-3</v>
       </c>
       <c r="H141" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I141" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R141" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S141" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="T141" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U141" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AI141" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D142" s="4">
         <v>300</v>
@@ -15564,21 +15569,21 @@
         <v>1E-3</v>
       </c>
       <c r="H142" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I142" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AI142" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="143" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F143" s="3">
         <v>0.05</v>
@@ -15587,10 +15592,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I143" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="V143">
         <v>300</v>
@@ -15605,15 +15610,15 @@
         <v>0</v>
       </c>
       <c r="AI143" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F144" s="3">
         <v>0.05</v>
@@ -15622,30 +15627,30 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I144" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J144" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K144" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L144" t="s">
+        <v>159</v>
+      </c>
+      <c r="M144" t="s">
         <v>164</v>
       </c>
-      <c r="M144" t="s">
-        <v>169</v>
-      </c>
       <c r="AI144" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="145" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D145" s="4">
         <v>1200</v>
@@ -15657,22 +15662,22 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I145" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R145" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S145" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T145" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U145" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="V145">
         <v>300</v>
@@ -15687,12 +15692,12 @@
         <v>0</v>
       </c>
       <c r="AI145" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D146" s="4">
         <v>3000</v>
@@ -15704,33 +15709,33 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I146" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N146">
         <v>0.02</v>
       </c>
       <c r="O146" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P146" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q146" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AI146" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F147" s="2">
         <v>1.4999999999999999E-2</v>
@@ -15739,24 +15744,24 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I147" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AD147" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE147">
         <v>500</v>
       </c>
       <c r="AI147" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D148" s="4">
         <v>3000</v>
@@ -15768,30 +15773,30 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I148" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="Z148" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AA148" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AC148" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI148" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F149" s="3">
         <v>0.01</v>
@@ -15800,30 +15805,30 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I149" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N149">
         <v>0.01</v>
       </c>
       <c r="O149" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P149" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q149" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AI149" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D150" s="4">
         <v>0</v>
@@ -15835,18 +15840,18 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I150" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AI150" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D151" s="4">
         <v>300</v>
@@ -15858,18 +15863,18 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I151" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AI151" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="152" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D152" s="4">
         <v>600</v>
@@ -15881,30 +15886,30 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I152" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N152">
         <v>0.05</v>
       </c>
       <c r="O152" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q152" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AI152" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D153" s="4">
         <v>600</v>
@@ -15916,30 +15921,30 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I153" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R153" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S153" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T153" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U153" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AI153" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D154" s="4">
         <v>1200</v>
@@ -15951,18 +15956,18 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I154" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI154" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="155" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D155" s="4">
         <v>2600</v>
@@ -15974,18 +15979,18 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I155" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI155" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="156" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D156" s="4">
         <v>3000</v>
@@ -15997,18 +16002,18 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I156" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI156" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D157" s="4">
         <v>1800</v>
@@ -16020,21 +16025,21 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I157" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="AI157" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -16043,21 +16048,21 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I158" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="AI158" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="159" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -16066,21 +16071,21 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I159" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI159" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D160" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -16089,33 +16094,33 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I160" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N160">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="O160" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P160" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q160" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AI160" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="161" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D161" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -16124,21 +16129,21 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I161" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI161" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -16147,21 +16152,21 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI162" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -16170,21 +16175,21 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI163" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -16193,21 +16198,21 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I164" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI164" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D165" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -16216,21 +16221,21 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I165" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI165" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -16239,21 +16244,21 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I166" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI166" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="167" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D167" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F167" s="3">
         <v>0</v>
@@ -16262,21 +16267,21 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI167" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D168" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -16285,21 +16290,21 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I168" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AI168" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D169" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F169" s="3">
         <v>0</v>
@@ -16308,21 +16313,21 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I169" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI169" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F170" s="3">
         <v>0</v>
@@ -16331,21 +16336,21 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I170" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI170" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="171" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F171" s="3">
         <v>0</v>
@@ -16354,21 +16359,21 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI171" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F172" s="3">
         <v>0</v>
@@ -16377,33 +16382,33 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I172" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J172" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K172" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L172" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M172" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI172" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F173" s="3">
         <v>0</v>
@@ -16412,21 +16417,21 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI173" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="174" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F174" s="3">
         <v>0</v>
@@ -16435,21 +16440,21 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I174" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AI174" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D175" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F175" s="3">
         <v>0</v>
@@ -16458,33 +16463,33 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J175" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K175" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L175" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M175" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AI175" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
@@ -16493,33 +16498,33 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I176" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N176">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P176" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q176" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AI176" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
@@ -16528,21 +16533,21 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I177" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI177" s="5" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="178" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F178" s="3">
         <v>0</v>
@@ -16551,16 +16556,16 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I178" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J178" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K178" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L178">
         <v>0</v>
@@ -16569,21 +16574,21 @@
         <v>0</v>
       </c>
       <c r="AD178" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AE178">
         <v>1300</v>
       </c>
       <c r="AI178" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F179" s="3">
         <v>0</v>
@@ -16592,30 +16597,30 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I179" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z179" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA179">
         <v>3000</v>
       </c>
       <c r="AC179" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AI179" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F180" s="3">
         <v>0</v>
@@ -16624,21 +16629,21 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I180" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI180" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D181" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F181" s="3">
         <v>0</v>
@@ -16647,33 +16652,33 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I181" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R181" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="S181" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T181" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="U181" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AI181" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F182" s="3">
         <v>0</v>
@@ -16682,21 +16687,21 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I182" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI182" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="183" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D183" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
@@ -16705,63 +16710,63 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I183" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N183">
         <v>0.02</v>
       </c>
       <c r="O183" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P183" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q183" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R183" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S183" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T183" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U183" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Z183" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AA183">
         <v>3000</v>
       </c>
       <c r="AB183" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AC183" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AD183" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE183" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI183" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D184" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
@@ -16770,21 +16775,21 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I184" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI184" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="185" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D185" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F185" s="3">
         <v>0</v>
@@ -16793,13 +16798,13 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I185" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z185" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AA185">
         <v>777</v>
@@ -16808,18 +16813,18 @@
         <v>0</v>
       </c>
       <c r="AD185" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE185">
         <v>300</v>
       </c>
       <c r="AI185" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D186" s="4">
         <v>0</v>
@@ -16831,30 +16836,30 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J186" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K186" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L186" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M186" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI186" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D187" s="4">
         <v>0</v>
@@ -16866,30 +16871,30 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I187" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J187" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K187" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L187" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M187" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI187" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D188" s="4">
         <v>0</v>
@@ -16901,13 +16906,13 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I188" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z188" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA188">
         <v>1000</v>
@@ -16916,12 +16921,12 @@
         <v>0</v>
       </c>
       <c r="AI188" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D189" s="4">
         <v>0</v>
@@ -16933,18 +16938,18 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I189" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI189" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D190" s="4">
         <v>0</v>
@@ -16956,18 +16961,18 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I190" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI190" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D191" s="4">
         <v>0</v>
@@ -16979,18 +16984,18 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I191" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI191" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D192" s="4">
         <v>0</v>
@@ -17002,18 +17007,18 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I192" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI192" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="193" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D193" s="4">
         <v>0</v>
@@ -17025,18 +17030,18 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I193" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI193" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="194" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D194" s="4">
         <v>0</v>
@@ -17048,18 +17053,18 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I194" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI194" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="195" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D195" s="4">
         <v>300</v>
@@ -17071,27 +17076,27 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I195" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD195" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE195">
         <v>800</v>
       </c>
       <c r="AG195" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AI195" s="5" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="196" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D196" s="4">
         <v>300</v>
@@ -17103,18 +17108,18 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I196" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI196" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D197" s="4">
         <v>300</v>
@@ -17126,27 +17131,27 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z197" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA197">
         <v>1000</v>
       </c>
       <c r="AC197" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AI197" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="198" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D198" s="4">
         <v>300</v>
@@ -17158,18 +17163,18 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I198" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI198" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D199" s="4">
         <v>300</v>
@@ -17181,18 +17186,18 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI199" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="200" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D200" s="4">
         <v>300</v>
@@ -17204,18 +17209,18 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I200" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI200" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D201" s="4">
         <v>300</v>
@@ -17227,18 +17232,18 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I201" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI201" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="202" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D202" s="4">
         <v>500</v>
@@ -17250,18 +17255,18 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I202" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI202" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D203" s="4">
         <v>588</v>
@@ -17273,36 +17278,36 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I203" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J203" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K203" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L203" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M203" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AD203" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AE203" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI203" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D204" s="4">
         <v>600</v>
@@ -17314,18 +17319,18 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I204" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI204" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="205" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D205" s="4">
         <v>600</v>
@@ -17337,18 +17342,18 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I205" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI205" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D206" s="4">
         <v>600</v>
@@ -17360,30 +17365,30 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R206" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S206" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T206" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="U206" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AI206" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="207" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D207" s="4">
         <v>600</v>
@@ -17395,13 +17400,13 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I207" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z207" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA207">
         <v>3000</v>
@@ -17410,12 +17415,12 @@
         <v>0</v>
       </c>
       <c r="AI207" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D208" s="4">
         <v>600</v>
@@ -17427,30 +17432,30 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I208" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N208">
         <v>0.01</v>
       </c>
       <c r="O208" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P208" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q208" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AI208" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D209" s="4">
         <v>600</v>
@@ -17462,18 +17467,18 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I209" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI209" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D210" s="4">
         <v>800</v>
@@ -17485,30 +17490,30 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I210" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J210" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K210" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L210" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M210" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AI210" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="211" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D211" s="4">
         <v>888</v>
@@ -17520,18 +17525,18 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I211" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI211" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="212" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D212" s="4">
         <v>900</v>
@@ -17543,18 +17548,18 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I212" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI212" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="213" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D213" s="4">
         <v>900</v>
@@ -17566,18 +17571,18 @@
         <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I213" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI213" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D214" s="4">
         <v>1000</v>
@@ -17589,30 +17594,30 @@
         <v>0</v>
       </c>
       <c r="H214" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I214" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N214">
         <v>0</v>
       </c>
       <c r="O214" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P214" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q214" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AI214" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="215" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D215" s="4">
         <v>1000</v>
@@ -17624,18 +17629,18 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I215" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI215" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D216" s="4">
         <v>1000</v>
@@ -17647,18 +17652,18 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I216" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI216" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D217" s="4">
         <v>1000</v>
@@ -17670,18 +17675,18 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I217" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI217" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D218" s="4">
         <v>1000</v>
@@ -17693,18 +17698,18 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I218" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI218" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D219" s="4">
         <v>1000</v>
@@ -17716,18 +17721,18 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I219" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI219" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="220" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D220" s="4">
         <v>1200</v>
@@ -17739,18 +17744,18 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I220" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI220" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D221" s="4">
         <v>1200</v>
@@ -17762,30 +17767,30 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I221" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R221" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S221" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T221" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="U221" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AI221" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D222" s="4">
         <v>1200</v>
@@ -17797,30 +17802,30 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I222" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N222">
         <v>0</v>
       </c>
       <c r="O222" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P222" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q222" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI222" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="223" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D223" s="4">
         <v>1200</v>
@@ -17832,18 +17837,18 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I223" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI223" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="224" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D224" s="4">
         <v>1200</v>
@@ -17855,30 +17860,30 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I224" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R224" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S224" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="T224" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="U224" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AI224" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D225" s="4">
         <v>1200</v>
@@ -17890,30 +17895,30 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I225" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N225">
         <v>0</v>
       </c>
       <c r="O225" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P225" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q225" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AI225" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D226" s="4">
         <v>1200</v>
@@ -17925,13 +17930,13 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I226" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z226" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA226">
         <v>5000</v>
@@ -17940,12 +17945,12 @@
         <v>0</v>
       </c>
       <c r="AI226" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D227" s="4">
         <v>1200</v>
@@ -17957,13 +17962,13 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I227" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z227" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA227">
         <v>6000</v>
@@ -17972,12 +17977,12 @@
         <v>0</v>
       </c>
       <c r="AI227" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="228" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D228" s="4">
         <v>1200</v>
@@ -17989,18 +17994,18 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I228" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI228" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D229" s="4">
         <v>1200</v>
@@ -18012,18 +18017,18 @@
         <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I229" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI229" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="230" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D230" s="4">
         <v>1200</v>
@@ -18035,18 +18040,18 @@
         <v>0</v>
       </c>
       <c r="H230" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I230" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI230" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D231" s="4">
         <v>1200</v>
@@ -18058,30 +18063,30 @@
         <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I231" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N231">
         <v>0</v>
       </c>
       <c r="O231" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P231" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q231" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="AI231" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D232" s="4">
         <v>1200</v>
@@ -18093,18 +18098,18 @@
         <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I232" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI232" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D233" s="4">
         <v>1500</v>
@@ -18116,18 +18121,18 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I233" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI233" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D234" s="4">
         <v>1500</v>
@@ -18139,18 +18144,18 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I234" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI234" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D235" s="4">
         <v>1500</v>
@@ -18162,18 +18167,18 @@
         <v>0</v>
       </c>
       <c r="H235" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I235" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI235" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D236" s="4">
         <v>1500</v>
@@ -18185,18 +18190,18 @@
         <v>0</v>
       </c>
       <c r="H236" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I236" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI236" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D237" s="4">
         <v>1500</v>
@@ -18208,18 +18213,18 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I237" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI237" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D238" s="4">
         <v>1500</v>
@@ -18231,18 +18236,18 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I238" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI238" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="239" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D239" s="4">
         <v>1500</v>
@@ -18254,18 +18259,18 @@
         <v>0</v>
       </c>
       <c r="H239" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I239" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI239" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="240" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D240" s="4">
         <v>1500</v>
@@ -18277,18 +18282,18 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I240" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI240" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D241" s="4">
         <v>1500</v>
@@ -18300,30 +18305,30 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I241" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N241">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="O241" t="s">
+        <v>192</v>
+      </c>
+      <c r="P241" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q241" t="s">
         <v>197</v>
       </c>
-      <c r="P241" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>202</v>
-      </c>
       <c r="AI241" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D242" s="4">
         <v>1500</v>
@@ -18335,18 +18340,18 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I242" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI242" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D243" s="4">
         <v>1500</v>
@@ -18358,18 +18363,18 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I243" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI243" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="244" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D244" s="4">
         <v>1500</v>
@@ -18381,30 +18386,30 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I244" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R244" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S244" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T244" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U244" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI244" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D245" s="4">
         <v>1500</v>
@@ -18416,30 +18421,30 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I245" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R245" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S245" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="T245" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="U245" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AI245" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D246" s="4">
         <v>1500</v>
@@ -18451,18 +18456,18 @@
         <v>0</v>
       </c>
       <c r="H246" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I246" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI246" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="247" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D247" s="4">
         <v>1800</v>
@@ -18474,18 +18479,18 @@
         <v>0</v>
       </c>
       <c r="H247" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I247" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI247" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="248" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D248" s="4">
         <v>1800</v>
@@ -18497,18 +18502,18 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I248" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI248" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="249" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D249" s="4">
         <v>1800</v>
@@ -18520,18 +18525,18 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I249" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI249" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="250" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D250" s="4">
         <v>1800</v>
@@ -18543,18 +18548,18 @@
         <v>0</v>
       </c>
       <c r="H250" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I250" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI250" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="251" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D251" s="4">
         <v>1800</v>
@@ -18566,18 +18571,18 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I251" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI251" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D252" s="4">
         <v>1800</v>
@@ -18589,30 +18594,30 @@
         <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I252" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J252" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K252" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L252" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M252" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI252" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="253" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D253" s="4">
         <v>1800</v>
@@ -18624,30 +18629,30 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I253" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J253" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K253" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L253" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M253" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI253" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="254" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D254" s="4">
         <v>1800</v>
@@ -18659,30 +18664,30 @@
         <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I254" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J254" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K254" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L254" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M254" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AI254" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="255" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D255" s="4">
         <v>1800</v>
@@ -18694,30 +18699,30 @@
         <v>0</v>
       </c>
       <c r="H255" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I255" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N255">
         <v>0</v>
       </c>
       <c r="O255" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P255" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q255" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AI255" s="5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="256" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D256" s="4">
         <v>1800</v>
@@ -18729,18 +18734,18 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I256" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI256" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="257" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D257" s="4">
         <v>1800</v>
@@ -18752,18 +18757,18 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I257" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI257" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="258" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D258" s="4">
         <v>1800</v>
@@ -18775,18 +18780,18 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I258" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI258" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="259" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D259" s="4">
         <v>2000</v>
@@ -18798,30 +18803,30 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I259" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J259" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K259" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L259" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M259" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI259" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="260" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D260" s="4">
         <v>2000</v>
@@ -18833,18 +18838,18 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I260" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI260" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="261" spans="2:35" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D261" s="4">
         <v>2400</v>
@@ -18856,30 +18861,30 @@
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I261" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R261" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S261" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T261" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U261" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AI261" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D262" s="4">
         <v>2400</v>
@@ -18891,36 +18896,36 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I262" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J262" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K262" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L262" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M262" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD262" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AE262" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI262" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D263" s="4">
         <v>2400</v>
@@ -18932,30 +18937,30 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I263" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J263" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K263" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L263" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M263" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AI263" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D264" s="4">
         <v>2400</v>
@@ -18967,54 +18972,54 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I264" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J264" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K264" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L264" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M264" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N264">
         <v>0.02</v>
       </c>
       <c r="O264" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P264" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q264" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R264" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S264" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T264" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="U264" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AI264" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D265" s="4">
         <v>3000</v>
@@ -19026,30 +19031,30 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I265" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Z265" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA265" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AB265">
         <v>0</v>
       </c>
       <c r="AC265" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI265" s="5" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D266" s="4">
         <v>3000</v>
@@ -19061,18 +19066,18 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I266" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI266" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="267" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D267" s="4">
         <v>3000</v>
@@ -19084,18 +19089,18 @@
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I267" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI267" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D268" s="4">
         <v>3000</v>
@@ -19107,18 +19112,18 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I268" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI268" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="269" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D269" s="4">
         <v>3000</v>
@@ -19130,18 +19135,18 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I269" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI269" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D270" s="4">
         <v>3000</v>
@@ -19153,30 +19158,30 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I270" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J270" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K270" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L270" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M270" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AI270" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="271" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D271" s="4">
         <v>3000</v>
@@ -19188,30 +19193,30 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I271" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K271" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L271" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M271" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AI271" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="272" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D272" s="4">
         <v>3000</v>
@@ -19223,18 +19228,18 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I272" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI272" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="273" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D273" s="4">
         <v>3000</v>
@@ -19246,30 +19251,30 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I273" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J273" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K273" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L273" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M273" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI273" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="274" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D274" s="4">
         <v>3600</v>
@@ -19281,16 +19286,16 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I274" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J274" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K274" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L274">
         <v>0</v>
@@ -19299,18 +19304,18 @@
         <v>0</v>
       </c>
       <c r="AD274" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AE274" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI274" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D275" s="4">
         <v>5000</v>
@@ -19322,30 +19327,30 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I275" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J275" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K275" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L275" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M275" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI275" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="276" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D276" s="4">
         <v>5000</v>
@@ -19357,18 +19362,18 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I276" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI276" s="5" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="277" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D277" s="4">
         <v>6600</v>
@@ -19380,39 +19385,39 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I277" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J277" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K277" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L277" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M277" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD277" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AE277" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AF277" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="AI277" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D278" s="4">
         <v>8000</v>
@@ -19424,30 +19429,30 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I278" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J278" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K278" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L278" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M278" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AI278" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="279" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D279" s="4">
         <v>8000</v>
@@ -19459,18 +19464,18 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I279" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI279" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D280" s="4">
         <v>8500</v>
@@ -19482,30 +19487,30 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I280" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J280" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K280" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L280" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M280" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AI280" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="281" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D281" s="4">
         <v>12000</v>
@@ -19517,30 +19522,30 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I281" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K281" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L281" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M281" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AI281" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="282" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D282" s="4">
         <v>20000</v>
@@ -19552,36 +19557,36 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I282" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J282" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K282" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L282" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M282" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AD282" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AE282" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI282" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="283" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D283" s="4">
         <v>20000</v>
@@ -19593,30 +19598,30 @@
         <v>0</v>
       </c>
       <c r="H283" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I283" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J283" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K283" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L283" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M283" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AI283" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D284" s="4">
         <v>20000</v>
@@ -19628,30 +19633,30 @@
         <v>0</v>
       </c>
       <c r="H284" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I284" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J284" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K284" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L284" t="s">
+        <v>159</v>
+      </c>
+      <c r="M284" t="s">
         <v>164</v>
       </c>
-      <c r="M284" t="s">
-        <v>169</v>
-      </c>
       <c r="AI284" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D285" s="4">
         <v>24000</v>
@@ -19663,30 +19668,30 @@
         <v>0</v>
       </c>
       <c r="H285" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I285" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R285" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S285" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T285" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U285" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AI285" s="5" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="286" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D286" s="4">
         <v>35000</v>
@@ -19698,65 +19703,65 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I286" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J286" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K286" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L286" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M286" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AI286" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="287" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D287" t="s">
+        <v>29</v>
+      </c>
+      <c r="F287" s="3">
+        <v>0</v>
+      </c>
+      <c r="G287" s="3">
+        <v>0</v>
+      </c>
+      <c r="H287" t="s">
+        <v>58</v>
+      </c>
+      <c r="I287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD287" t="s">
         <v>34</v>
-      </c>
-      <c r="F287" s="3">
-        <v>0</v>
-      </c>
-      <c r="G287" s="3">
-        <v>0</v>
-      </c>
-      <c r="H287" t="s">
-        <v>63</v>
-      </c>
-      <c r="I287" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD287" t="s">
-        <v>39</v>
       </c>
       <c r="AE287">
         <v>1000</v>
       </c>
       <c r="AG287" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AI287" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="288" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D288" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F288" s="3">
         <v>0</v>
@@ -19765,21 +19770,21 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I288" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI288" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="289" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D289" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F289" s="3">
         <v>0</v>
@@ -19788,21 +19793,21 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I289" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI289" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="290" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D290" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F290" s="3">
         <v>0</v>
@@ -19811,21 +19816,21 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I290" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI290" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="291" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D291" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F291" s="3">
         <v>0</v>
@@ -19834,13 +19839,13 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I291" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="Z291" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA291">
         <v>1000</v>
@@ -19852,18 +19857,18 @@
         <v>0</v>
       </c>
       <c r="AD291" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AE291" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AI291" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="292" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D292" s="4">
         <v>300</v>
@@ -19875,18 +19880,18 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I292" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI292" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="293" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D293" s="4">
         <v>1800</v>
@@ -19898,18 +19903,18 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I293" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI293" s="5" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="294" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D294" s="4">
         <v>1800</v>
@@ -19921,16 +19926,16 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I294" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J294" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K294" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L294">
         <v>0</v>
@@ -19939,12 +19944,12 @@
         <v>0</v>
       </c>
       <c r="AI294" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D295" s="4">
         <v>2400</v>
@@ -19956,16 +19961,16 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I295" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J295" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K295" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L295">
         <v>0</v>
@@ -19974,12 +19979,12 @@
         <v>0</v>
       </c>
       <c r="AI295" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D296" s="4">
         <v>5000</v>
@@ -19991,18 +19996,18 @@
         <v>0</v>
       </c>
       <c r="H296" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I296" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI296" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="297" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D297" s="4">
         <v>5000</v>
@@ -20014,25 +20019,25 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I297" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J297" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K297" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L297" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M297">
         <v>0</v>
       </c>
       <c r="AI297" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">

--- a/data/cardform.xlsx
+++ b/data/cardform.xlsx
@@ -11357,7 +11357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11367,8 +11367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -11381,7 +11381,7 @@
     <col min="10" max="10" width="25.25" customWidth="1"/>
     <col min="11" max="11" width="18.25" customWidth="1"/>
     <col min="12" max="12" width="26.125" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="34.25" customWidth="1"/>
     <col min="14" max="14" width="22.875" customWidth="1"/>
     <col min="15" max="15" width="26.25" customWidth="1"/>
     <col min="16" max="16" width="39.875" customWidth="1"/>
@@ -12510,12 +12510,6 @@
       <c r="W35">
         <v>0.02</v>
       </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
       <c r="AI35" s="5" t="s">
         <v>560</v>
       </c>
@@ -12666,12 +12660,6 @@
       <c r="W41">
         <v>0.02</v>
       </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
       <c r="AI41" s="5" t="s">
         <v>563</v>
       </c>
@@ -13093,12 +13081,6 @@
       <c r="W55">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
       <c r="AI55" s="5" t="s">
         <v>560</v>
       </c>
@@ -13517,12 +13499,6 @@
       <c r="W69">
         <v>0.04</v>
       </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
       <c r="Z69" t="s">
         <v>239</v>
       </c>
@@ -13843,12 +13819,6 @@
       <c r="W79">
         <v>0.05</v>
       </c>
-      <c r="X79">
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <v>0</v>
-      </c>
       <c r="AI79" s="5" t="s">
         <v>563</v>
       </c>
@@ -14340,12 +14310,6 @@
       <c r="W98">
         <v>0.02</v>
       </c>
-      <c r="X98">
-        <v>0</v>
-      </c>
-      <c r="Y98">
-        <v>0</v>
-      </c>
       <c r="AD98" t="s">
         <v>34</v>
       </c>
@@ -15005,12 +14969,6 @@
       <c r="W123">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <v>0</v>
-      </c>
       <c r="AD123" t="s">
         <v>34</v>
       </c>
@@ -15046,12 +15004,6 @@
       <c r="W124">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <v>0</v>
-      </c>
       <c r="AI124" s="5" t="s">
         <v>563</v>
       </c>
@@ -15220,12 +15172,6 @@
       <c r="W130">
         <v>0.05</v>
       </c>
-      <c r="X130">
-        <v>0</v>
-      </c>
-      <c r="Y130">
-        <v>0</v>
-      </c>
       <c r="AI130" s="5" t="s">
         <v>561</v>
       </c>
@@ -15313,12 +15259,6 @@
       <c r="W133">
         <v>0.03</v>
       </c>
-      <c r="X133">
-        <v>0</v>
-      </c>
-      <c r="Y133">
-        <v>0</v>
-      </c>
       <c r="AI133" s="5" t="s">
         <v>564</v>
       </c>
@@ -15603,12 +15543,6 @@
       <c r="W143">
         <v>0.05</v>
       </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143">
-        <v>0</v>
-      </c>
       <c r="AI143" s="5" t="s">
         <v>564</v>
       </c>
@@ -15684,12 +15618,6 @@
       </c>
       <c r="W145">
         <v>0.05</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>0</v>
       </c>
       <c r="AI145" s="5" t="s">
         <v>564</v>
